--- a/data/trans_camb/P1408-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1408-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.018589323916853</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.2819107650000964</v>
+        <v>-0.2819107650000971</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.2706622400093849</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.138956154526436</v>
+        <v>-2.041251777030478</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.69699573005664</v>
+        <v>-3.647972412716614</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.185918613464939</v>
+        <v>-2.064570792203731</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.713978139960031</v>
+        <v>-1.647525704647443</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.153167685437881</v>
+        <v>-2.107803354955657</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9338534342623449</v>
+        <v>-0.8844803077775293</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.429673375740705</v>
+        <v>-1.459231984313426</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.479326948910748</v>
+        <v>-2.392079167322313</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.024583677498151</v>
+        <v>-0.9723087324386632</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.284117929488152</v>
+        <v>2.144163504286894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.4705282374945483</v>
+        <v>-0.4784779468899563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.388398342517361</v>
+        <v>1.304326484133194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.163739069236228</v>
+        <v>1.245933236940314</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7352804245695707</v>
+        <v>0.7276687766712148</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.933211791344526</v>
+        <v>1.906997650334429</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.09668143743218</v>
+        <v>1.179222092926558</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.3303569373622529</v>
+        <v>-0.2408714197132987</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.252617004540436</v>
+        <v>1.300163370625372</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.5827504490244252</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.08138536300680066</v>
+        <v>-0.08138536300680087</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1315024582128206</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4842419070455505</v>
+        <v>-0.4874297387788114</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8201642718657136</v>
+        <v>-0.8172135396900622</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4685358971200703</v>
+        <v>-0.480043212981051</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6416082229077047</v>
+        <v>-0.6310624776461039</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7529990066691747</v>
+        <v>-0.7389717640683198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3233841457058192</v>
+        <v>-0.2923708010850279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4342457480319872</v>
+        <v>-0.4188063062442952</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7273617160735245</v>
+        <v>-0.706509720483981</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3020392691266826</v>
+        <v>-0.287089358881109</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9358129949724565</v>
+        <v>0.8665765891615745</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.118425112249524</v>
+        <v>-0.1396673385481296</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5463018907859242</v>
+        <v>0.5469311383966236</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9462098818456716</v>
+        <v>0.8664617386273228</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5939711877198179</v>
+        <v>0.5810751159616995</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.459820523323129</v>
+        <v>1.547842175397268</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5012298444820117</v>
+        <v>0.6084336415782847</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1287333388783199</v>
+        <v>-0.0803053103533406</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5746607002596178</v>
+        <v>0.6129310568090264</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.053177335013309</v>
+        <v>-5.002282085755269</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.902878833528018</v>
+        <v>-4.813208466754935</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.584437750824734</v>
+        <v>-4.585890765681548</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.972678990746672</v>
+        <v>-2.938296383620902</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.617443176009208</v>
+        <v>-2.519014957702967</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.410514232781268</v>
+        <v>-1.44586610290862</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.579544434830464</v>
+        <v>-3.514698522609447</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.235219877010424</v>
+        <v>-3.188890104054225</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.536398896454946</v>
+        <v>-2.588456073071134</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.684233619233037</v>
+        <v>-1.533186506090886</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.36918281870936</v>
+        <v>-1.29624500914781</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.20478368732417</v>
+        <v>-1.168325148454888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4627750514960315</v>
+        <v>-0.5710426800629441</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05247776570277989</v>
+        <v>-0.06416686525522347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.444122847750668</v>
+        <v>1.43494901755091</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.475104570983824</v>
+        <v>-1.446986729203226</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.074038077453225</v>
+        <v>-1.013220945765895</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.2528695569174999</v>
+        <v>-0.4260802694456033</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.5511869931149856</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3755541877072361</v>
+        <v>-0.3755541877072362</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.788816494032179</v>
+        <v>-0.7883095241757425</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7749027881099014</v>
+        <v>-0.7534700582730276</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7233740077059032</v>
+        <v>-0.7238843772190822</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8451802772820571</v>
+        <v>-0.8573471590385517</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7514210352087799</v>
+        <v>-0.7545923218336873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4298814562026651</v>
+        <v>-0.4302730923288109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7663073390652166</v>
+        <v>-0.7577003986885518</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6952091127467415</v>
+        <v>-0.7096110617754561</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5468806935651372</v>
+        <v>-0.5723105605234314</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.360523510437674</v>
+        <v>-0.3473497418285073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3068176001420498</v>
+        <v>-0.2885154526256657</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2793997184219631</v>
+        <v>-0.2566944429515455</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2081675999567515</v>
+        <v>-0.261795177370197</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07596184569735552</v>
+        <v>-0.0127316467074596</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8742954037541151</v>
+        <v>0.8382664467052311</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4400055899379399</v>
+        <v>-0.4374074647060082</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3159682420932908</v>
+        <v>-0.3149063222767797</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.07637011809406109</v>
+        <v>-0.1230011825144111</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.408801977657271</v>
+        <v>-3.46587442835234</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.713978761188161</v>
+        <v>-3.662401925538321</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.04227755525443</v>
+        <v>-3.073946491233719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.710122211482667</v>
+        <v>-3.56984754109097</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.876760817601156</v>
+        <v>-2.839080556644957</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.892629535938032</v>
+        <v>-2.887912486683944</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.192578484220374</v>
+        <v>-3.157492349460068</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.736053051334661</v>
+        <v>-3.016683327740165</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.476239336052461</v>
+        <v>-2.45404847766106</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1996537546290289</v>
+        <v>0.123778966392867</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2907057396088998</v>
+        <v>-0.06807085899685597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3161765194511881</v>
+        <v>0.4203756341993763</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.7059346284979287</v>
+        <v>-0.6197250968407728</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4001681826368098</v>
+        <v>0.4944849013247877</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3206197192923457</v>
+        <v>0.266741816751449</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.8046135434817269</v>
+        <v>-0.8209938114603358</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.4382909884370553</v>
+        <v>-0.5012174594343326</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.08510794729290183</v>
+        <v>0.01473178944412207</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7264101439478641</v>
+        <v>-0.7598483158448496</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7996193044137953</v>
+        <v>-0.7809120304800711</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6480054653245817</v>
+        <v>-0.6613732024452018</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8809682805129516</v>
+        <v>-0.8813955868900987</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7306804148711803</v>
+        <v>-0.7203645432803624</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.68677336715473</v>
+        <v>-0.7046460547596735</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7588431663661591</v>
+        <v>-0.7493532648882208</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6906467426604922</v>
+        <v>-0.7070454804414387</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6078408389148467</v>
+        <v>-0.5896290133471638</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1154775298338365</v>
+        <v>0.08428435892354043</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.04474262732800085</v>
+        <v>0.03121798952801966</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1623052730487443</v>
+        <v>0.1476770602643523</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.2502510735799333</v>
+        <v>-0.1873599197952981</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2155103819179316</v>
+        <v>0.2664973509112716</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1501329634776071</v>
+        <v>0.1299584746454946</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2742731246621865</v>
+        <v>-0.2736988277370639</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.140680890682507</v>
+        <v>-0.1654364976434855</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.01640056646213052</v>
+        <v>0.03806119761254186</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.225206645432826</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.0377826633778524</v>
+        <v>0.0377826633778517</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-2.077329407408179</v>
@@ -1306,7 +1306,7 @@
         <v>-1.956635005553237</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.6680566863417087</v>
+        <v>-0.6680566863417093</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.039987570785351</v>
+        <v>-3.838423160206379</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.310513597322101</v>
+        <v>-3.103728993570611</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.994139218828551</v>
+        <v>-3.070305105992587</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.003674378895712</v>
+        <v>-3.004260414695417</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.435703416260016</v>
+        <v>-3.482168077646217</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.494484056708768</v>
+        <v>-1.458398529528001</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.980342715742781</v>
+        <v>-3.050698271079892</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.986527561647931</v>
+        <v>-2.947460107505804</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.680575858368006</v>
+        <v>-1.701538478579066</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.234473787701019</v>
+        <v>-1.073378588299263</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.08415504340832591</v>
+        <v>-0.01134444327250053</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1155519869066098</v>
+        <v>-0.1447875420197214</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.563129525776396</v>
+        <v>-0.537688591268514</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.035060406052055</v>
+        <v>-1.081794272598785</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.315017861106654</v>
+        <v>1.289991017257836</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.161032384538374</v>
+        <v>-1.155041257274765</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.024459578442662</v>
+        <v>-0.9994059399478691</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3355827811504537</v>
+        <v>0.3232928725408284</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4066992563596947</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3572802182329525</v>
+        <v>-0.3572802182329526</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.5803356911390603</v>
@@ -1402,7 +1402,7 @@
         <v>-0.7495486048730328</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01272688209941426</v>
+        <v>0.01272688209941403</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.595451105367246</v>
@@ -1411,7 +1411,7 @@
         <v>-0.5608549480414654</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1914935064759261</v>
+        <v>-0.1914935064759263</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8033069305491842</v>
+        <v>-0.7794289222585083</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6721532955627887</v>
+        <v>-0.6388118976740373</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5863244139177597</v>
+        <v>-0.6066351969831372</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7850637117390292</v>
+        <v>-0.7973650669377126</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.9118817492514759</v>
+        <v>-0.8970506873194435</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3780763513956991</v>
+        <v>-0.3716687420559091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7347939196597105</v>
+        <v>-0.7513242316164872</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7198810423671926</v>
+        <v>-0.7107702882229689</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4119394385623745</v>
+        <v>-0.4109705259743222</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3367085813701743</v>
+        <v>-0.2785541642691546</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01573603547236886</v>
+        <v>0.01411011316070285</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.06999263533015651</v>
+        <v>-0.008079713404367393</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1761838459149033</v>
+        <v>-0.2204270533330435</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.4493661246257286</v>
+        <v>-0.3944510042454654</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6033142065285203</v>
+        <v>0.5569122197763566</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3632452296752084</v>
+        <v>-0.3900250484440776</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3322236028765787</v>
+        <v>-0.2965451569914371</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1097783383573351</v>
+        <v>0.1164351351590976</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-1.424553379010153</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.1384157104017875</v>
+        <v>-0.1384157104017871</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.755446228643095</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.839073227062439</v>
+        <v>-2.844876087841123</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.048983635989987</v>
+        <v>-3.032021684054804</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.455672240327479</v>
+        <v>-2.468683164883102</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.195951871627019</v>
+        <v>-2.184188936674239</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.098025572546664</v>
+        <v>-2.074076923867141</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8545033931340507</v>
+        <v>-0.9620874918618572</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.34726667123902</v>
+        <v>-2.315079263773216</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.405690714875523</v>
+        <v>-2.356586200568994</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.405525181994439</v>
+        <v>-1.408715502084063</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.051761721500196</v>
+        <v>-1.122225537361397</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.314679032154568</v>
+        <v>-1.398805609381905</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.7569354939570315</v>
+        <v>-0.6610503185879799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.8105465701936914</v>
+        <v>-0.8686148296381822</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.7589896527042373</v>
+        <v>-0.7422316651172713</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5639701711512419</v>
+        <v>0.5634753754440762</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.221078587049136</v>
+        <v>-1.236309999248261</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.215259927873668</v>
+        <v>-1.280069301420007</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.309242239776595</v>
+        <v>-0.3023812972469655</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.5259056880642888</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.05109925011608889</v>
+        <v>-0.05109925011608876</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.5134519661145616</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6247367226609349</v>
+        <v>-0.6116875109172697</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.639895684001215</v>
+        <v>-0.6431975052192681</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5298607350588558</v>
+        <v>-0.5343137853656731</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6944101126534027</v>
+        <v>-0.6937691111238621</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6717647741113968</v>
+        <v>-0.6767710738718987</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2778294352060854</v>
+        <v>-0.2942158710242437</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6163973152408745</v>
+        <v>-0.6232458573156472</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6242325780362358</v>
+        <v>-0.6271317737648866</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3675939134686256</v>
+        <v>-0.3742493062398684</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3044117364497139</v>
+        <v>-0.2945193688919965</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3546139250278754</v>
+        <v>-0.356271803756948</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2097492726307657</v>
+        <v>-0.1868131019528512</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.3427644296544007</v>
+        <v>-0.3627069936990436</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.3194606460353929</v>
+        <v>-0.3227056891162917</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2430580083762759</v>
+        <v>0.2596848252464196</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3881555946214793</v>
+        <v>-0.3880590863896671</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3876596527567683</v>
+        <v>-0.3995365411364978</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.09695645767305783</v>
+        <v>-0.09582347098260582</v>
       </c>
     </row>
     <row r="34">
